--- a/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1185,17 +1185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="35.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1204,25 +1204,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.08203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.05859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1185,17 +1185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.5546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="35.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1204,25 +1204,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.56640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.05859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.08203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1185,17 +1185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="32.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1204,25 +1204,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.08203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.65234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-episodeofcare.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -671,7 +671,7 @@
     <t>The type of the episode of care.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type</t>
+    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -701,7 +701,7 @@
     <t>EpisodeOfCare.diagnosis.condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -729,7 +729,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis.rank</t>
@@ -748,7 +748,7 @@
     <t>EpisodeOfCare.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -767,7 +767,7 @@
     <t>EpisodeOfCare.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -798,7 +798,7 @@
     <t>EpisodeOfCare.referralRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -814,7 +814,7 @@
     <t>EpisodeOfCare.careManager</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -831,7 +831,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
     <t>EpisodeOfCare.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="41.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2450,7 +2450,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>177</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>178</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>187</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>195</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>239</v>
       </c>
@@ -5312,12 +5312,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM37">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
